--- a/progetto esame/screen/analisi dati.xlsx
+++ b/progetto esame/screen/analisi dati.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="128">
   <si>
     <t>Utenti</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Imposta iva</t>
   </si>
   <si>
-    <t>Eterna</t>
-  </si>
-  <si>
     <t>CliFor</t>
   </si>
   <si>
@@ -390,6 +387,27 @@
   </si>
   <si>
     <t>Codice dell'azienda di cui si è clienti o fornitori, assume valore 0 se non si è ne uno ne l'altro</t>
+  </si>
+  <si>
+    <t>Vendita</t>
+  </si>
+  <si>
+    <t>COD_Fattura</t>
+  </si>
+  <si>
+    <t>COD_Prod</t>
+  </si>
+  <si>
+    <t>QtaProd</t>
+  </si>
+  <si>
+    <t>Codice della fattura</t>
+  </si>
+  <si>
+    <t>Quantità del prodotto venduto</t>
+  </si>
+  <si>
+    <t>Iva del prodotto venduto</t>
   </si>
 </sst>
 </file>
@@ -576,38 +594,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -618,20 +627,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:K102"/>
+  <dimension ref="F2:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="K110" sqref="F2:K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,8 +1080,8 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="6:11" x14ac:dyDescent="0.25">
@@ -1202,16 +1220,16 @@
     </row>
     <row r="20" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="5"/>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="19" t="s">
+      <c r="I20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="20" t="s">
@@ -1220,24 +1238,24 @@
     </row>
     <row r="21" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="5"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="19"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="5"/>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="19" t="s">
+      <c r="I22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="20" t="s">
@@ -1246,10 +1264,10 @@
     </row>
     <row r="23" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="5"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="6:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1361,17 +1379,17 @@
       </c>
     </row>
     <row r="30" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="19"/>
-      <c r="G30" s="32" t="s">
+      <c r="F30" s="21"/>
+      <c r="G30" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="H30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="20" t="s">
@@ -1379,36 +1397,36 @@
       </c>
     </row>
     <row r="31" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="19"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="19"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="19"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="20"/>
     </row>
     <row r="34" spans="6:11" ht="45" x14ac:dyDescent="0.25">
       <c r="F34" s="6"/>
-      <c r="G34" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="H34" s="35" t="s">
-        <v>121</v>
+      <c r="G34" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>8</v>
@@ -1421,7 +1439,7 @@
       </c>
     </row>
     <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="H35" s="31"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="7" t="s">
@@ -1429,8 +1447,8 @@
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.25">
@@ -1573,8 +1591,8 @@
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="7"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="6:11" x14ac:dyDescent="0.25">
@@ -1731,16 +1749,16 @@
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F58" s="5"/>
-      <c r="G58" s="24" t="s">
+      <c r="G58" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="I58" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="J58" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K58" s="20" t="s">
@@ -1749,10 +1767,10 @@
     </row>
     <row r="59" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F59" s="5"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="6:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1847,16 +1865,16 @@
     </row>
     <row r="65" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="5"/>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="I65" s="19" t="s">
+      <c r="I65" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K65" s="20" t="s">
@@ -1865,24 +1883,24 @@
     </row>
     <row r="66" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F66" s="5"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="5"/>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="H67" s="25" t="s">
+      <c r="H67" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I67" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J67" s="19" t="s">
+      <c r="J67" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K67" s="20" t="s">
@@ -1891,10 +1909,10 @@
     </row>
     <row r="68" spans="6:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="5"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="6:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1921,8 +1939,8 @@
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="7"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
       <c r="K71" s="9"/>
     </row>
     <row r="72" spans="6:11" x14ac:dyDescent="0.25">
@@ -1989,16 +2007,16 @@
     </row>
     <row r="76" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F76" s="5"/>
-      <c r="G76" s="19" t="s">
+      <c r="G76" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H76" s="18" t="s">
+      <c r="H76" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="I76" s="19" t="s">
+      <c r="I76" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K76" s="20" t="s">
@@ -2007,20 +2025,20 @@
     </row>
     <row r="77" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F77" s="6"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="29"/>
-      <c r="J77" s="29"/>
-      <c r="K77" s="30"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="27"/>
     </row>
     <row r="79" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F79" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G79" s="9"/>
+      <c r="G79" s="7"/>
       <c r="H79" s="7"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="6:11" x14ac:dyDescent="0.25">
@@ -2107,10 +2125,10 @@
       <c r="F86" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G86" s="9"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="7"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
       <c r="K86" s="9"/>
     </row>
     <row r="87" spans="6:11" x14ac:dyDescent="0.25">
@@ -2177,16 +2195,16 @@
     </row>
     <row r="91" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F91" s="5"/>
-      <c r="G91" s="19" t="s">
+      <c r="G91" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I91" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J91" s="19" t="s">
+      <c r="I91" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="J91" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K91" s="20" t="s">
@@ -2195,10 +2213,10 @@
     </row>
     <row r="92" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F92" s="5"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="6:11" x14ac:dyDescent="0.25">
@@ -2241,10 +2259,10 @@
       <c r="F96" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
       <c r="K96" s="9"/>
     </row>
     <row r="97" spans="6:11" x14ac:dyDescent="0.25">
@@ -2288,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="100" spans="6:11" x14ac:dyDescent="0.25">
@@ -2306,7 +2324,7 @@
         <v>9</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
     </row>
     <row r="101" spans="6:11" x14ac:dyDescent="0.25">
@@ -2345,49 +2363,157 @@
         <v>14</v>
       </c>
     </row>
+    <row r="104" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F104" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G104" s="8"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F105" s="4"/>
+      <c r="G105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F107" s="5"/>
+      <c r="G107" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="108" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F108" s="5"/>
+      <c r="G108" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F109" s="5"/>
+      <c r="G109" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F110" s="6"/>
+      <c r="G110" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="I67:I68"/>
+    <mergeCell ref="J67:J68"/>
+    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="H91:H92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="K76:K77"/>
     <mergeCell ref="K30:K33"/>
     <mergeCell ref="F30:F33"/>
     <mergeCell ref="H30:H33"/>
     <mergeCell ref="G30:G33"/>
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="J30:J33"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="H91:H92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
